--- a/data/input/technology_data;source=instrat_2023.xlsx
+++ b/data/input/technology_data;source=instrat_2023.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,29 +981,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.304</v>
+        <v>0.45</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304</v>
+        <v>0.45</v>
       </c>
       <c r="D9" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="E9" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="I9" t="n">
         <v>0.3</v>
@@ -1012,186 +1012,558 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.89</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>0.89</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Net total efficiency</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.304</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.304</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.305</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.305</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.304</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.303</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.301</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Net electrical efficiency</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.058</v>
+        <v>0.304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.058</v>
+        <v>0.304</v>
       </c>
       <c r="D12" t="n">
-        <v>0.058</v>
+        <v>0.305</v>
       </c>
       <c r="E12" t="n">
-        <v>0.058</v>
+        <v>0.305</v>
       </c>
       <c r="F12" t="n">
-        <v>0.058</v>
+        <v>0.304</v>
       </c>
       <c r="G12" t="n">
-        <v>0.058</v>
+        <v>0.303</v>
       </c>
       <c r="H12" t="n">
-        <v>0.058</v>
+        <v>0.301</v>
       </c>
       <c r="I12" t="n">
-        <v>0.058</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Net to gross power ratio</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.131</v>
+        <v>0.89</v>
       </c>
       <c r="C13" t="n">
-        <v>5.129</v>
+        <v>0.89</v>
       </c>
       <c r="D13" t="n">
-        <v>5.119</v>
+        <v>0.89</v>
       </c>
       <c r="E13" t="n">
-        <v>5.11</v>
+        <v>0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>5.133</v>
+        <v>0.89</v>
       </c>
       <c r="G13" t="n">
-        <v>5.156</v>
+        <v>0.89</v>
       </c>
       <c r="H13" t="n">
-        <v>5.179</v>
+        <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>5.202</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Net total efficiency</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.065</v>
+        <v>0.304</v>
       </c>
       <c r="C14" t="n">
-        <v>24.053</v>
+        <v>0.304</v>
       </c>
       <c r="D14" t="n">
-        <v>24.009</v>
+        <v>0.305</v>
       </c>
       <c r="E14" t="n">
-        <v>23.965</v>
+        <v>0.305</v>
       </c>
       <c r="F14" t="n">
-        <v>24.074</v>
+        <v>0.304</v>
       </c>
       <c r="G14" t="n">
-        <v>24.182</v>
+        <v>0.303</v>
       </c>
       <c r="H14" t="n">
-        <v>24.29</v>
+        <v>0.301</v>
       </c>
       <c r="I14" t="n">
-        <v>24.398</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>42</v>
+      </c>
+      <c r="C22" t="n">
+        <v>42</v>
+      </c>
+      <c r="D22" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" t="n">
+        <v>31</v>
+      </c>
+      <c r="G22" t="n">
+        <v>31</v>
+      </c>
+      <c r="H22" t="n">
+        <v>31</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>197</v>
+      </c>
+      <c r="C23" t="n">
+        <v>197</v>
+      </c>
+      <c r="D23" t="n">
+        <v>145</v>
+      </c>
+      <c r="E23" t="n">
+        <v>145</v>
+      </c>
+      <c r="F23" t="n">
+        <v>145</v>
+      </c>
+      <c r="G23" t="n">
+        <v>145</v>
+      </c>
+      <c r="H23" t="n">
+        <v>145</v>
+      </c>
+      <c r="I23" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.131</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.129</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.119</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.133</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.156</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.179</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>24.065</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.053</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24.009</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23.965</v>
+      </c>
+      <c r="F26" t="n">
+        <v>24.074</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24.182</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24.398</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Warm start-up time [hours]</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C27" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D27" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1206,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,29 +1868,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.304</v>
+        <v>0.45</v>
       </c>
       <c r="C10" t="n">
-        <v>0.304</v>
+        <v>0.45</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="I10" t="n">
         <v>0.3</v>
@@ -1527,217 +1899,589 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Net thermal efficiency</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8139999999999999</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8149999999999999</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8149999999999999</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8139999999999999</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8159999999999999</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8169999999999999</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8179999999999999</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.89</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.89</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Net total efficiency</t>
+          <t>Net electrical efficiency</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.118</v>
+        <v>0.304</v>
       </c>
       <c r="C13" t="n">
-        <v>1.12</v>
+        <v>0.304</v>
       </c>
       <c r="D13" t="n">
-        <v>1.12</v>
+        <v>0.305</v>
       </c>
       <c r="E13" t="n">
-        <v>1.12</v>
+        <v>0.305</v>
       </c>
       <c r="F13" t="n">
-        <v>1.12</v>
+        <v>0.304</v>
       </c>
       <c r="G13" t="n">
-        <v>1.12</v>
+        <v>0.303</v>
       </c>
       <c r="H13" t="n">
-        <v>1.12</v>
+        <v>0.301</v>
       </c>
       <c r="I13" t="n">
-        <v>1.12</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Net thermal efficiency</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.058</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.058</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.058</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.058</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.058</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.058</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.058</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.058</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Net to gross power ratio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.131</v>
+        <v>0.89</v>
       </c>
       <c r="C15" t="n">
-        <v>5.129</v>
+        <v>0.89</v>
       </c>
       <c r="D15" t="n">
-        <v>5.119</v>
+        <v>0.89</v>
       </c>
       <c r="E15" t="n">
-        <v>5.11</v>
+        <v>0.89</v>
       </c>
       <c r="F15" t="n">
-        <v>5.133</v>
+        <v>0.89</v>
       </c>
       <c r="G15" t="n">
-        <v>5.156</v>
+        <v>0.89</v>
       </c>
       <c r="H15" t="n">
-        <v>5.179</v>
+        <v>0.89</v>
       </c>
       <c r="I15" t="n">
-        <v>5.202</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Net total efficiency</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.065</v>
+        <v>1.118</v>
       </c>
       <c r="C16" t="n">
-        <v>24.053</v>
+        <v>1.12</v>
       </c>
       <c r="D16" t="n">
-        <v>24.009</v>
+        <v>1.12</v>
       </c>
       <c r="E16" t="n">
-        <v>23.965</v>
+        <v>1.12</v>
       </c>
       <c r="F16" t="n">
-        <v>24.074</v>
+        <v>1.12</v>
       </c>
       <c r="G16" t="n">
-        <v>24.182</v>
+        <v>1.12</v>
       </c>
       <c r="H16" t="n">
-        <v>24.29</v>
+        <v>1.12</v>
       </c>
       <c r="I16" t="n">
-        <v>24.398</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>31</v>
+      </c>
+      <c r="E24" t="n">
+        <v>31</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31</v>
+      </c>
+      <c r="G24" t="n">
+        <v>31</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31</v>
+      </c>
+      <c r="I24" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>197</v>
+      </c>
+      <c r="C25" t="n">
+        <v>197</v>
+      </c>
+      <c r="D25" t="n">
+        <v>145</v>
+      </c>
+      <c r="E25" t="n">
+        <v>145</v>
+      </c>
+      <c r="F25" t="n">
+        <v>145</v>
+      </c>
+      <c r="G25" t="n">
+        <v>145</v>
+      </c>
+      <c r="H25" t="n">
+        <v>145</v>
+      </c>
+      <c r="I25" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.131</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.129</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.119</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.133</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.156</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.179</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>24.065</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24.053</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.009</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23.965</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24.074</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24.182</v>
+      </c>
+      <c r="H28" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24.398</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Warm start-up time [hours]</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B29" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C29" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D29" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G29" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H29" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1988,7 +2732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2154,124 +2898,496 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.91</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.91</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>42</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31</v>
+      </c>
+      <c r="H18" t="n">
+        <v>31</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>197</v>
+      </c>
+      <c r="C19" t="n">
+        <v>197</v>
+      </c>
+      <c r="D19" t="n">
+        <v>145</v>
+      </c>
+      <c r="E19" t="n">
+        <v>145</v>
+      </c>
+      <c r="F19" t="n">
+        <v>145</v>
+      </c>
+      <c r="G19" t="n">
+        <v>145</v>
+      </c>
+      <c r="H19" t="n">
+        <v>145</v>
+      </c>
+      <c r="I19" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B21" t="n">
         <v>18.15</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C21" t="n">
         <v>18.15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D21" t="n">
         <v>18.15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E21" t="n">
         <v>18.15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F21" t="n">
         <v>18.15</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G21" t="n">
         <v>18.15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H21" t="n">
         <v>18.15</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I21" t="n">
         <v>18.15</v>
       </c>
     </row>
@@ -2286,7 +3402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,124 +3568,496 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C6" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.91</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.91</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>42</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>31</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31</v>
+      </c>
+      <c r="H18" t="n">
+        <v>31</v>
+      </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>197</v>
+      </c>
+      <c r="C19" t="n">
+        <v>197</v>
+      </c>
+      <c r="D19" t="n">
+        <v>145</v>
+      </c>
+      <c r="E19" t="n">
+        <v>145</v>
+      </c>
+      <c r="F19" t="n">
+        <v>145</v>
+      </c>
+      <c r="G19" t="n">
+        <v>145</v>
+      </c>
+      <c r="H19" t="n">
+        <v>145</v>
+      </c>
+      <c r="I19" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B21" t="n">
         <v>18.15</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C21" t="n">
         <v>18.15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D21" t="n">
         <v>18.15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E21" t="n">
         <v>18.15</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F21" t="n">
         <v>18.15</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G21" t="n">
         <v>18.15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H21" t="n">
         <v>18.15</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I21" t="n">
         <v>18.15</v>
       </c>
     </row>
@@ -5488,7 +6976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5623,124 +7111,496 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
       <c r="I5" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.92</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.92</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.92</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.92</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.92</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.92</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.92</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0.92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>31</v>
+      </c>
+      <c r="H17" t="n">
+        <v>31</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>197</v>
+      </c>
+      <c r="C18" t="n">
+        <v>197</v>
+      </c>
+      <c r="D18" t="n">
+        <v>145</v>
+      </c>
+      <c r="E18" t="n">
+        <v>145</v>
+      </c>
+      <c r="F18" t="n">
+        <v>145</v>
+      </c>
+      <c r="G18" t="n">
+        <v>145</v>
+      </c>
+      <c r="H18" t="n">
+        <v>145</v>
+      </c>
+      <c r="I18" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B20" t="n">
         <v>17.04</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C20" t="n">
         <v>17.04</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D20" t="n">
         <v>17.04</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E20" t="n">
         <v>17.04</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F20" t="n">
         <v>17.04</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G20" t="n">
         <v>17.04</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H20" t="n">
         <v>17.04</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I20" t="n">
         <v>17.04</v>
       </c>
     </row>
@@ -5750,819 +7610,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2035</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2045</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Forced outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Net electrical efficiency</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Net to gross power ratio</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Planned outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="G8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="H8" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2035</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2045</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cold start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fixed cost [EUR/MW_e/year]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17535</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17125.85</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16687.475</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16249.1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15986.075</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15723.05</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15460.025</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fixed cost [PLN/MW_e/year]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>82239.14999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80320.236</v>
-      </c>
-      <c r="D4" t="n">
-        <v>78264.258</v>
-      </c>
-      <c r="E4" t="n">
-        <v>76208.27899999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>74974.692</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73741.10400000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>72507.51700000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>71273.92999999999</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Forced outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Investment cost [MEUR/MW_e]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.866</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.858</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.842</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Investment cost [MPLN/MW_e]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.441</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.342</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.219</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.096</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.058</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.021</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.947</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lifetime [years]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Net electrical efficiency</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Net to gross power ratio</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Net total efficiency</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Planned outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Variable cost [EUR/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.144</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.027</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.851</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.793</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.734</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.676</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.123</v>
-      </c>
-      <c r="D16" t="n">
-        <v>23.575</v>
-      </c>
-      <c r="E16" t="n">
-        <v>23.027</v>
-      </c>
-      <c r="F16" t="n">
-        <v>22.753</v>
-      </c>
-      <c r="G16" t="n">
-        <v>22.479</v>
-      </c>
-      <c r="H16" t="n">
-        <v>22.205</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21.93</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6610,6 +7657,1563 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Forced outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Minimum generation [% of max output]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Minimum time off [hours]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Minimum time on [hours]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>42</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>31</v>
+      </c>
+      <c r="H17" t="n">
+        <v>31</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>197</v>
+      </c>
+      <c r="C18" t="n">
+        <v>197</v>
+      </c>
+      <c r="D18" t="n">
+        <v>145</v>
+      </c>
+      <c r="E18" t="n">
+        <v>145</v>
+      </c>
+      <c r="F18" t="n">
+        <v>145</v>
+      </c>
+      <c r="G18" t="n">
+        <v>145</v>
+      </c>
+      <c r="H18" t="n">
+        <v>145</v>
+      </c>
+      <c r="I18" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2045</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cold start-up time [hours]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fixed cost [EUR/MW_e/year]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17535</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17125.85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16687.475</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16249.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15986.075</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15723.05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15460.025</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15197</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fixed cost [PLN/MW_e/year]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82239.14999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80320.236</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78264.258</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76208.27899999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>74974.692</v>
+      </c>
+      <c r="G4" t="n">
+        <v>73741.10400000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72507.51700000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71273.92999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Forced outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Investment cost [MEUR/MW_e]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.842</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Investment cost [MPLN/MW_e]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.441</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.342</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.219</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.096</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.058</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.021</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lifetime [years]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Minimum generation [% of max output]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Minimum time off [hours]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Minimum time on [hours]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Net total efficiency</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
+        <v>22</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>103</v>
+      </c>
+      <c r="C25" t="n">
+        <v>103</v>
+      </c>
+      <c r="D25" t="n">
+        <v>103</v>
+      </c>
+      <c r="E25" t="n">
+        <v>103</v>
+      </c>
+      <c r="F25" t="n">
+        <v>103</v>
+      </c>
+      <c r="G25" t="n">
+        <v>103</v>
+      </c>
+      <c r="H25" t="n">
+        <v>103</v>
+      </c>
+      <c r="I25" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.144</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.027</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.793</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.734</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.676</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24.123</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.575</v>
+      </c>
+      <c r="E28" t="n">
+        <v>23.027</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22.753</v>
+      </c>
+      <c r="G28" t="n">
+        <v>22.479</v>
+      </c>
+      <c r="H28" t="n">
+        <v>22.205</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Warm start-up time [hours]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2045</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Cb</t>
         </is>
       </c>
@@ -6951,248 +9555,620 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.533</v>
+        <v>0.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.545</v>
+        <v>0.4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.556</v>
+        <v>0.4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.573</v>
+        <v>0.4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.579</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.584</v>
+        <v>0.4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Net thermal efficiency</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.314</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.303</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.293</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.284</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.28</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.276</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.272</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.268</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Net total efficiency</t>
+          <t>Net electrical efficiency</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.846</v>
+        <v>0.533</v>
       </c>
       <c r="C16" t="n">
-        <v>0.847</v>
+        <v>0.545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.849</v>
+        <v>0.556</v>
       </c>
       <c r="E16" t="n">
-        <v>0.851</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.853</v>
+        <v>0.573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.855</v>
+        <v>0.579</v>
       </c>
       <c r="H16" t="n">
-        <v>0.856</v>
+        <v>0.584</v>
       </c>
       <c r="I16" t="n">
-        <v>0.858</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Net thermal efficiency</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.048</v>
+        <v>0.314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.044</v>
+        <v>0.303</v>
       </c>
       <c r="D17" t="n">
-        <v>0.041</v>
+        <v>0.293</v>
       </c>
       <c r="E17" t="n">
-        <v>0.038</v>
+        <v>0.284</v>
       </c>
       <c r="F17" t="n">
-        <v>0.038</v>
+        <v>0.28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.038</v>
+        <v>0.276</v>
       </c>
       <c r="H17" t="n">
-        <v>0.038</v>
+        <v>0.272</v>
       </c>
       <c r="I17" t="n">
-        <v>0.038</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Net to gross power ratio</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="C18" t="n">
-        <v>5.144</v>
+        <v>0.98</v>
       </c>
       <c r="D18" t="n">
-        <v>5.027</v>
+        <v>0.98</v>
       </c>
       <c r="E18" t="n">
-        <v>4.91</v>
+        <v>0.98</v>
       </c>
       <c r="F18" t="n">
-        <v>4.851</v>
+        <v>0.98</v>
       </c>
       <c r="G18" t="n">
-        <v>4.793</v>
+        <v>0.98</v>
       </c>
       <c r="H18" t="n">
-        <v>4.734</v>
+        <v>0.98</v>
       </c>
       <c r="I18" t="n">
-        <v>4.676</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Net total efficiency</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.672</v>
+        <v>0.846</v>
       </c>
       <c r="C19" t="n">
-        <v>24.123</v>
+        <v>0.847</v>
       </c>
       <c r="D19" t="n">
-        <v>23.575</v>
+        <v>0.849</v>
       </c>
       <c r="E19" t="n">
-        <v>23.027</v>
+        <v>0.851</v>
       </c>
       <c r="F19" t="n">
-        <v>22.753</v>
+        <v>0.853</v>
       </c>
       <c r="G19" t="n">
-        <v>22.479</v>
+        <v>0.855</v>
       </c>
       <c r="H19" t="n">
-        <v>22.205</v>
+        <v>0.856</v>
       </c>
       <c r="I19" t="n">
-        <v>21.93</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
+        <v>22</v>
+      </c>
+      <c r="D27" t="n">
+        <v>22</v>
+      </c>
+      <c r="E27" t="n">
+        <v>22</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22</v>
+      </c>
+      <c r="H27" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>103</v>
+      </c>
+      <c r="C28" t="n">
+        <v>103</v>
+      </c>
+      <c r="D28" t="n">
+        <v>103</v>
+      </c>
+      <c r="E28" t="n">
+        <v>103</v>
+      </c>
+      <c r="F28" t="n">
+        <v>103</v>
+      </c>
+      <c r="G28" t="n">
+        <v>103</v>
+      </c>
+      <c r="H28" t="n">
+        <v>103</v>
+      </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.144</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.027</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.793</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.734</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.676</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24.123</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23.575</v>
+      </c>
+      <c r="E31" t="n">
+        <v>23.027</v>
+      </c>
+      <c r="F31" t="n">
+        <v>22.753</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22.479</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22.205</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Warm start-up time [hours]</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D32" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G32" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7207,7 +10183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7528,217 +10504,589 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.435</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.445</v>
+        <v>0.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Net total efficiency</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.435</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.445</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Net electrical efficiency</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002</v>
+        <v>0.41</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002</v>
+        <v>0.42</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002</v>
+        <v>0.425</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002</v>
+        <v>0.43</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002</v>
+        <v>0.435</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002</v>
+        <v>0.44</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002</v>
+        <v>0.445</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Net to gross power ratio</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="C15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="D15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="E15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="F15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="G15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="H15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="I15" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Net total efficiency</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.672</v>
+        <v>0.41</v>
       </c>
       <c r="C16" t="n">
-        <v>24.672</v>
+        <v>0.42</v>
       </c>
       <c r="D16" t="n">
-        <v>24.672</v>
+        <v>0.425</v>
       </c>
       <c r="E16" t="n">
-        <v>24.672</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>24.672</v>
+        <v>0.435</v>
       </c>
       <c r="G16" t="n">
-        <v>24.672</v>
+        <v>0.44</v>
       </c>
       <c r="H16" t="n">
-        <v>24.672</v>
+        <v>0.445</v>
       </c>
       <c r="I16" t="n">
-        <v>24.672</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>80</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80</v>
+      </c>
+      <c r="D25" t="n">
+        <v>80</v>
+      </c>
+      <c r="E25" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" t="n">
+        <v>80</v>
+      </c>
+      <c r="I25" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="C28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="E28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="H28" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24.672</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Warm start-up time [hours]</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B29" t="n">
         <v>0.083</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C29" t="n">
         <v>0.083</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D29" t="n">
         <v>0.083</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E29" t="n">
         <v>0.083</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F29" t="n">
         <v>0.083</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G29" t="n">
         <v>0.083</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H29" t="n">
         <v>0.083</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I29" t="n">
         <v>0.083</v>
       </c>
     </row>
@@ -7753,7 +11101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8105,248 +11453,620 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.425</v>
+        <v>0.4</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.435</v>
+        <v>0.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.445</v>
+        <v>0.4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Net thermal efficiency</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.432</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.438</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.434</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.435</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.445</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Net total efficiency</t>
+          <t>Net electrical efficiency</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.842</v>
+        <v>0.41</v>
       </c>
       <c r="C15" t="n">
-        <v>0.857</v>
+        <v>0.42</v>
       </c>
       <c r="D15" t="n">
-        <v>0.859</v>
+        <v>0.425</v>
       </c>
       <c r="E15" t="n">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="F15" t="n">
-        <v>0.87</v>
+        <v>0.435</v>
       </c>
       <c r="G15" t="n">
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="H15" t="n">
-        <v>0.89</v>
+        <v>0.445</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Net thermal efficiency</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.058</v>
+        <v>0.432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.058</v>
+        <v>0.438</v>
       </c>
       <c r="D16" t="n">
-        <v>0.053</v>
+        <v>0.434</v>
       </c>
       <c r="E16" t="n">
-        <v>0.048</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
-        <v>0.048</v>
+        <v>0.435</v>
       </c>
       <c r="G16" t="n">
-        <v>0.048</v>
+        <v>0.44</v>
       </c>
       <c r="H16" t="n">
-        <v>0.048</v>
+        <v>0.445</v>
       </c>
       <c r="I16" t="n">
-        <v>0.048</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Net to gross power ratio</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.26</v>
+        <v>0.98</v>
       </c>
       <c r="C17" t="n">
-        <v>5.144</v>
+        <v>0.98</v>
       </c>
       <c r="D17" t="n">
-        <v>5.027</v>
+        <v>0.98</v>
       </c>
       <c r="E17" t="n">
-        <v>4.91</v>
+        <v>0.98</v>
       </c>
       <c r="F17" t="n">
-        <v>4.851</v>
+        <v>0.98</v>
       </c>
       <c r="G17" t="n">
-        <v>4.793</v>
+        <v>0.98</v>
       </c>
       <c r="H17" t="n">
-        <v>4.734</v>
+        <v>0.98</v>
       </c>
       <c r="I17" t="n">
-        <v>4.676</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Net total efficiency</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.672</v>
+        <v>0.842</v>
       </c>
       <c r="C18" t="n">
-        <v>24.123</v>
+        <v>0.857</v>
       </c>
       <c r="D18" t="n">
-        <v>23.575</v>
+        <v>0.859</v>
       </c>
       <c r="E18" t="n">
-        <v>23.027</v>
+        <v>0.86</v>
       </c>
       <c r="F18" t="n">
-        <v>22.753</v>
+        <v>0.87</v>
       </c>
       <c r="G18" t="n">
-        <v>22.479</v>
+        <v>0.88</v>
       </c>
       <c r="H18" t="n">
-        <v>22.205</v>
+        <v>0.89</v>
       </c>
       <c r="I18" t="n">
-        <v>21.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>17</v>
+      </c>
+      <c r="H26" t="n">
+        <v>17</v>
+      </c>
+      <c r="I26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>80</v>
+      </c>
+      <c r="C27" t="n">
+        <v>80</v>
+      </c>
+      <c r="D27" t="n">
+        <v>80</v>
+      </c>
+      <c r="E27" t="n">
+        <v>80</v>
+      </c>
+      <c r="F27" t="n">
+        <v>80</v>
+      </c>
+      <c r="G27" t="n">
+        <v>80</v>
+      </c>
+      <c r="H27" t="n">
+        <v>80</v>
+      </c>
+      <c r="I27" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.144</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.027</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.793</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.734</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.676</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24.123</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.575</v>
+      </c>
+      <c r="E30" t="n">
+        <v>23.027</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22.753</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22.479</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22.205</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Warm start-up time [hours]</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B31" t="n">
         <v>0.25</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C31" t="n">
         <v>0.23</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D31" t="n">
         <v>0.215</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E31" t="n">
         <v>0.2</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F31" t="n">
         <v>0.2</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G31" t="n">
         <v>0.2</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H31" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I31" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -8361,7 +12081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8558,155 +12278,527 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Net electrical efficiency</t>
+          <t>Minimum generation [% of max output]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="E7" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Net to gross power ratio</t>
+          <t>Minimum time off [hours]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Planned outage as year fraction</t>
+          <t>Minimum time on [hours]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Net electrical efficiency</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.1</v>
+        <v>0.33</v>
       </c>
       <c r="C10" t="n">
-        <v>135.1</v>
+        <v>0.33</v>
       </c>
       <c r="D10" t="n">
-        <v>135.1</v>
+        <v>0.34</v>
       </c>
       <c r="E10" t="n">
-        <v>135.1</v>
+        <v>0.35</v>
       </c>
       <c r="F10" t="n">
-        <v>135.1</v>
+        <v>0.36</v>
       </c>
       <c r="G10" t="n">
-        <v>135.1</v>
+        <v>0.37</v>
       </c>
       <c r="H10" t="n">
-        <v>135.1</v>
+        <v>0.38</v>
       </c>
       <c r="I10" t="n">
-        <v>135.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shutdown cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>98</v>
+      </c>
+      <c r="C20" t="n">
+        <v>98</v>
+      </c>
+      <c r="D20" t="n">
+        <v>98</v>
+      </c>
+      <c r="E20" t="n">
+        <v>98</v>
+      </c>
+      <c r="F20" t="n">
+        <v>98</v>
+      </c>
+      <c r="G20" t="n">
+        <v>98</v>
+      </c>
+      <c r="H20" t="n">
+        <v>98</v>
+      </c>
+      <c r="I20" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36</v>
+      </c>
+      <c r="E21" t="n">
+        <v>36</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36</v>
+      </c>
+      <c r="G21" t="n">
+        <v>36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>36</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Variable cost [USD/MWh_e]</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B23" t="n">
         <v>35</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C23" t="n">
         <v>35</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D23" t="n">
         <v>35</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E23" t="n">
         <v>35</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F23" t="n">
         <v>35</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G23" t="n">
         <v>35</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H23" t="n">
         <v>35</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I23" t="n">
         <v>35</v>
       </c>
     </row>

--- a/data/input/technology_data;source=instrat_2023.xlsx
+++ b/data/input/technology_data;source=instrat_2023.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,22 +991,22 @@
         <v>0.45</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D16" t="n">
         <v>0.05</v>
@@ -1264,28 +1264,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19">
@@ -1322,248 +1322,217 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="F22" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="G22" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I22" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [EUR/MWh_e]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>5.131</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>5.129</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>5.119</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>5.11</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>5.133</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>5.156</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>5.179</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5.202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.131</v>
+        <v>24.065</v>
       </c>
       <c r="C25" t="n">
-        <v>5.129</v>
+        <v>24.053</v>
       </c>
       <c r="D25" t="n">
-        <v>5.119</v>
+        <v>24.009</v>
       </c>
       <c r="E25" t="n">
-        <v>5.11</v>
+        <v>23.965</v>
       </c>
       <c r="F25" t="n">
-        <v>5.133</v>
+        <v>24.074</v>
       </c>
       <c r="G25" t="n">
-        <v>5.156</v>
+        <v>24.182</v>
       </c>
       <c r="H25" t="n">
-        <v>5.179</v>
+        <v>24.29</v>
       </c>
       <c r="I25" t="n">
-        <v>5.202</v>
+        <v>24.398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Warm start-up time [hours]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.065</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>24.053</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>24.009</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>23.965</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>24.074</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>24.182</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>24.29</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>24.398</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1578,7 +1547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1878,22 +1847,22 @@
         <v>0.45</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -2120,10 +2089,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D18" t="n">
         <v>0.05</v>
@@ -2182,28 +2151,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
@@ -2240,248 +2209,217 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="F24" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="G24" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H24" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I24" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [EUR/MWh_e]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>5.131</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5.129</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>5.119</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>5.11</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>5.133</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>5.156</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>5.179</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5.202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.131</v>
+        <v>24.065</v>
       </c>
       <c r="C27" t="n">
-        <v>5.129</v>
+        <v>24.053</v>
       </c>
       <c r="D27" t="n">
-        <v>5.119</v>
+        <v>24.009</v>
       </c>
       <c r="E27" t="n">
-        <v>5.11</v>
+        <v>23.965</v>
       </c>
       <c r="F27" t="n">
-        <v>5.133</v>
+        <v>24.074</v>
       </c>
       <c r="G27" t="n">
-        <v>5.156</v>
+        <v>24.182</v>
       </c>
       <c r="H27" t="n">
-        <v>5.179</v>
+        <v>24.29</v>
       </c>
       <c r="I27" t="n">
-        <v>5.202</v>
+        <v>24.398</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Warm start-up time [hours]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.065</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>24.053</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>24.009</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>23.965</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>24.074</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>24.182</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>24.29</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>24.398</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2732,7 +2670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,22 +2846,22 @@
         <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -3088,10 +3026,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D12" t="n">
         <v>0.05</v>
@@ -3150,28 +3088,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
@@ -3208,186 +3146,155 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>18.15</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>18.15</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="I21" t="n">
         <v>18.15</v>
       </c>
     </row>
@@ -3402,7 +3309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3578,22 +3485,22 @@
         <v>0.45</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -3758,10 +3665,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D12" t="n">
         <v>0.05</v>
@@ -3820,28 +3727,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
@@ -3878,186 +3785,155 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C18" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="D18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I18" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>18.15</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>18.15</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>18.15</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="I21" t="n">
         <v>18.15</v>
       </c>
     </row>
@@ -6976,7 +6852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7121,22 +6997,22 @@
         <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -7301,10 +7177,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D11" t="n">
         <v>0.05</v>
@@ -7363,28 +7239,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -7421,186 +7297,155 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>17.04</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>17.04</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="I20" t="n">
         <v>17.04</v>
       </c>
     </row>
@@ -7615,7 +7460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7760,22 +7605,22 @@
         <v>0.45</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -7940,10 +7785,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D11" t="n">
         <v>0.05</v>
@@ -8002,28 +7847,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
@@ -8060,186 +7905,155 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="H17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I17" t="n">
-        <v>31</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>197</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>17.04</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>17.04</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>17.04</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="I20" t="n">
         <v>17.04</v>
       </c>
     </row>
@@ -8254,7 +8068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8858,28 +8672,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
@@ -8916,248 +8730,217 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="C23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="D23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="H24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I24" t="n">
-        <v>22</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="C25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="D25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="E25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
-        <v>103</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [EUR/MWh_e]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.5</v>
+        <v>5.26</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5</v>
+        <v>5.144</v>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>5.027</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>4.91</v>
       </c>
       <c r="F26" t="n">
-        <v>2.5</v>
+        <v>4.851</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>4.793</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>4.734</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>4.676</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.26</v>
+        <v>24.672</v>
       </c>
       <c r="C27" t="n">
-        <v>5.144</v>
+        <v>24.123</v>
       </c>
       <c r="D27" t="n">
-        <v>5.027</v>
+        <v>23.575</v>
       </c>
       <c r="E27" t="n">
-        <v>4.91</v>
+        <v>23.027</v>
       </c>
       <c r="F27" t="n">
-        <v>4.851</v>
+        <v>22.753</v>
       </c>
       <c r="G27" t="n">
-        <v>4.793</v>
+        <v>22.479</v>
       </c>
       <c r="H27" t="n">
-        <v>4.734</v>
+        <v>22.205</v>
       </c>
       <c r="I27" t="n">
-        <v>4.676</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Warm start-up time [hours]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.672</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>24.123</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>23.575</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>23.027</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>22.753</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>22.479</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>22.205</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>21.93</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9167,1935 +8950,6 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2035</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2045</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cb</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cold start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cv</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fixed cost [EUR/MW_e/year]</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>35070</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34251.7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33374.95</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32498.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>31972.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>31446.1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>30920.05</v>
-      </c>
-      <c r="I5" t="n">
-        <v>30394</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fixed cost [PLN/MW_e/year]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>164478.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>160640.473</v>
-      </c>
-      <c r="D6" t="n">
-        <v>156528.516</v>
-      </c>
-      <c r="E6" t="n">
-        <v>152416.558</v>
-      </c>
-      <c r="F6" t="n">
-        <v>149949.384</v>
-      </c>
-      <c r="G6" t="n">
-        <v>147482.209</v>
-      </c>
-      <c r="H6" t="n">
-        <v>145015.034</v>
-      </c>
-      <c r="I6" t="n">
-        <v>142547.86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Forced outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="G9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Investment cost [MEUR/MW_e]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.052</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.029</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.953</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9350000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Investment cost [MPLN/MW_e]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.934</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.825</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.688</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.551</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.509</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.468</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.427</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.386</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lifetime [years]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Minimum generation [% of max output]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Minimum time off [hours]</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Minimum time on [hours]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Net electrical efficiency</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Net thermal efficiency</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.284</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.268</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Net to gross power ratio</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Net total efficiency</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.849</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.858</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Planned outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ramp down rate limit [% of max output / min]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ramp up rate limit [% of max output / min]</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ramp up rate limit at startup [% of max output / hour]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Shutdown cost [PLN/MW]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Shutdown time [hours]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Startup cost [EUR/MW]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>22</v>
-      </c>
-      <c r="C27" t="n">
-        <v>22</v>
-      </c>
-      <c r="D27" t="n">
-        <v>22</v>
-      </c>
-      <c r="E27" t="n">
-        <v>22</v>
-      </c>
-      <c r="F27" t="n">
-        <v>22</v>
-      </c>
-      <c r="G27" t="n">
-        <v>22</v>
-      </c>
-      <c r="H27" t="n">
-        <v>22</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Startup cost [PLN/MW]</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>103</v>
-      </c>
-      <c r="C28" t="n">
-        <v>103</v>
-      </c>
-      <c r="D28" t="n">
-        <v>103</v>
-      </c>
-      <c r="E28" t="n">
-        <v>103</v>
-      </c>
-      <c r="F28" t="n">
-        <v>103</v>
-      </c>
-      <c r="G28" t="n">
-        <v>103</v>
-      </c>
-      <c r="H28" t="n">
-        <v>103</v>
-      </c>
-      <c r="I28" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Startup time [hours]</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Variable cost [EUR/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.144</v>
-      </c>
-      <c r="D30" t="n">
-        <v>5.027</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4.851</v>
-      </c>
-      <c r="G30" t="n">
-        <v>4.793</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.734</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.676</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="C31" t="n">
-        <v>24.123</v>
-      </c>
-      <c r="D31" t="n">
-        <v>23.575</v>
-      </c>
-      <c r="E31" t="n">
-        <v>23.027</v>
-      </c>
-      <c r="F31" t="n">
-        <v>22.753</v>
-      </c>
-      <c r="G31" t="n">
-        <v>22.479</v>
-      </c>
-      <c r="H31" t="n">
-        <v>22.205</v>
-      </c>
-      <c r="I31" t="n">
-        <v>21.93</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2035</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2040</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>2045</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cold start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fixed cost [EUR/MW_e/year]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9431.492</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9431.492</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9242.861999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9054.232</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8959.916999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8865.602000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8771.288</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8676.973</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fixed cost [PLN/MW_e/year]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>44233.697</v>
-      </c>
-      <c r="C4" t="n">
-        <v>44233.697</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43349.024</v>
-      </c>
-      <c r="E4" t="n">
-        <v>42464.35</v>
-      </c>
-      <c r="F4" t="n">
-        <v>42022.013</v>
-      </c>
-      <c r="G4" t="n">
-        <v>41579.676</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41137.339</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40695.002</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Forced outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="H7" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Investment cost [MEUR/MW_e]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.481</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Investment cost [MPLN/MW_e]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.566</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.489</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.438</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.386</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.354</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.322</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.258</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Lifetime [years]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Minimum generation [% of max output]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Minimum time off [hours]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Minimum time on [hours]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Net electrical efficiency</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Net to gross power ratio</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Net total efficiency</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Planned outage as year fraction</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ramp down rate limit [% of max output / min]</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Ramp up rate limit [% of max output / min]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ramp up rate limit at startup [% of max output / hour]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Shutdown cost [PLN/MW]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Shutdown time [hours]</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Startup cost [EUR/MW]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C24" t="n">
-        <v>17</v>
-      </c>
-      <c r="D24" t="n">
-        <v>17</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17</v>
-      </c>
-      <c r="F24" t="n">
-        <v>17</v>
-      </c>
-      <c r="G24" t="n">
-        <v>17</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Startup cost [PLN/MW]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>80</v>
-      </c>
-      <c r="C25" t="n">
-        <v>80</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>80</v>
-      </c>
-      <c r="F25" t="n">
-        <v>80</v>
-      </c>
-      <c r="G25" t="n">
-        <v>80</v>
-      </c>
-      <c r="H25" t="n">
-        <v>80</v>
-      </c>
-      <c r="I25" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Startup time [hours]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Variable cost [EUR/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="D27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Variable cost [PLN/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="C28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="E28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="F28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="G28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="H28" t="n">
-        <v>24.672</v>
-      </c>
-      <c r="I28" t="n">
-        <v>24.672</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.083</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11147,6 +9001,1873 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cold start-up time [hours]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cv</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fixed cost [EUR/MW_e/year]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>35070</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34251.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33374.95</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32498.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31972.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31446.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30920.05</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30394</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fixed cost [PLN/MW_e/year]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>164478.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>160640.473</v>
+      </c>
+      <c r="D6" t="n">
+        <v>156528.516</v>
+      </c>
+      <c r="E6" t="n">
+        <v>152416.558</v>
+      </c>
+      <c r="F6" t="n">
+        <v>149949.384</v>
+      </c>
+      <c r="G6" t="n">
+        <v>147482.209</v>
+      </c>
+      <c r="H6" t="n">
+        <v>145015.034</v>
+      </c>
+      <c r="I6" t="n">
+        <v>142547.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Forced outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Investment cost [MEUR/MW_e]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Investment cost [MPLN/MW_e]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.825</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.688</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.551</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.509</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.468</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.427</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.386</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lifetime [years]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Minimum generation [% of max output]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Minimum time off [hours]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Minimum time on [hours]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Net thermal efficiency</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Net total efficiency</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>36</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36</v>
+      </c>
+      <c r="D26" t="n">
+        <v>36</v>
+      </c>
+      <c r="E26" t="n">
+        <v>36</v>
+      </c>
+      <c r="F26" t="n">
+        <v>36</v>
+      </c>
+      <c r="G26" t="n">
+        <v>36</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36</v>
+      </c>
+      <c r="I26" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>169</v>
+      </c>
+      <c r="D27" t="n">
+        <v>169</v>
+      </c>
+      <c r="E27" t="n">
+        <v>169</v>
+      </c>
+      <c r="F27" t="n">
+        <v>169</v>
+      </c>
+      <c r="G27" t="n">
+        <v>169</v>
+      </c>
+      <c r="H27" t="n">
+        <v>169</v>
+      </c>
+      <c r="I27" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.144</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.027</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.793</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.734</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.676</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24.123</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.575</v>
+      </c>
+      <c r="E30" t="n">
+        <v>23.027</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22.753</v>
+      </c>
+      <c r="G30" t="n">
+        <v>22.479</v>
+      </c>
+      <c r="H30" t="n">
+        <v>22.205</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21.93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Warm start-up time [hours]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2045</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cold start-up time [hours]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fixed cost [EUR/MW_e/year]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9431.492</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9431.492</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9242.861999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9054.232</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8959.916999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8865.602000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8771.288</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8676.973</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Fixed cost [PLN/MW_e/year]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44233.697</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44233.697</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43349.024</v>
+      </c>
+      <c r="E4" t="n">
+        <v>42464.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42022.013</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41579.676</v>
+      </c>
+      <c r="H4" t="n">
+        <v>41137.339</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40695.002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Forced outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fuel CO2 emission factor [tCO2/MWh_t]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fuel calorific value [MWh_t/t or MWh_t/1000m3 for gas]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Investment cost [MEUR/MW_e]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Investment cost [MPLN/MW_e]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.566</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.258</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lifetime [years]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Minimum generation [% of max output]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Minimum time off [hours]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Minimum time on [hours]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Net electrical efficiency</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Net to gross power ratio</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Net total efficiency</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Planned outage as year fraction</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ramp down rate limit at shutdown [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit [% of max output / min]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ramp up rate limit at startup [% of max output / hour]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Shutdown time [hours]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Startup cost [EUR/MW]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="n">
+        <v>24</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24</v>
+      </c>
+      <c r="E23" t="n">
+        <v>24</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24</v>
+      </c>
+      <c r="H23" t="n">
+        <v>24</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Startup cost [PLN/MW]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>113</v>
+      </c>
+      <c r="C24" t="n">
+        <v>113</v>
+      </c>
+      <c r="D24" t="n">
+        <v>113</v>
+      </c>
+      <c r="E24" t="n">
+        <v>113</v>
+      </c>
+      <c r="F24" t="n">
+        <v>113</v>
+      </c>
+      <c r="G24" t="n">
+        <v>113</v>
+      </c>
+      <c r="H24" t="n">
+        <v>113</v>
+      </c>
+      <c r="I24" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Startup time [hours]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Variable cost [EUR/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Variable cost [PLN/MWh_e]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="E27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="F27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="H27" t="n">
+        <v>24.672</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24.672</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Warm start-up time [hours]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2040</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>2045</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cb</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0.95</v>
       </c>
       <c r="C2" t="n">
@@ -11705,28 +11426,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21">
@@ -11767,28 +11488,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23">
@@ -11825,248 +11546,217 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="H26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [EUR/MWh_e]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>5.26</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>5.144</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>5.027</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>4.91</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>4.851</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4.793</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>4.734</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>4.676</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Variable cost [EUR/MWh_e]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.26</v>
+        <v>24.672</v>
       </c>
       <c r="C29" t="n">
-        <v>5.144</v>
+        <v>24.123</v>
       </c>
       <c r="D29" t="n">
-        <v>5.027</v>
+        <v>23.575</v>
       </c>
       <c r="E29" t="n">
-        <v>4.91</v>
+        <v>23.027</v>
       </c>
       <c r="F29" t="n">
-        <v>4.851</v>
+        <v>22.753</v>
       </c>
       <c r="G29" t="n">
-        <v>4.793</v>
+        <v>22.479</v>
       </c>
       <c r="H29" t="n">
-        <v>4.734</v>
+        <v>22.205</v>
       </c>
       <c r="I29" t="n">
-        <v>4.676</v>
+        <v>21.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Warm start-up time [hours]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>24.672</v>
+        <v>0.25</v>
       </c>
       <c r="C30" t="n">
-        <v>24.123</v>
+        <v>0.23</v>
       </c>
       <c r="D30" t="n">
-        <v>23.575</v>
+        <v>0.215</v>
       </c>
       <c r="E30" t="n">
-        <v>23.027</v>
+        <v>0.2</v>
       </c>
       <c r="F30" t="n">
-        <v>22.753</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>22.479</v>
+        <v>0.2</v>
       </c>
       <c r="H30" t="n">
-        <v>22.205</v>
+        <v>0.2</v>
       </c>
       <c r="I30" t="n">
-        <v>21.93</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Warm start-up time [hours]</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I31" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12081,7 +11771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12588,217 +12278,186 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shutdown cost [PLN/MW]</t>
+          <t>Shutdown time [hours]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Shutdown time [hours]</t>
+          <t>Startup cost [EUR/MW]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Startup cost [EUR/MW]</t>
+          <t>Startup cost [PLN/MW]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I19" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Startup cost [PLN/MW]</t>
+          <t>Startup time [hours]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="I20" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Startup time [hours]</t>
+          <t>Variable cost [PLN/MWh_e]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="H21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Variable cost [PLN/MWh_e]</t>
+          <t>Variable cost [USD/MWh_e]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="C22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="G22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="H22" t="n">
-        <v>135.1</v>
+        <v>35</v>
       </c>
       <c r="I22" t="n">
-        <v>135.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Variable cost [USD/MWh_e]</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>35</v>
-      </c>
-      <c r="C23" t="n">
-        <v>35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>35</v>
-      </c>
-      <c r="E23" t="n">
-        <v>35</v>
-      </c>
-      <c r="F23" t="n">
-        <v>35</v>
-      </c>
-      <c r="G23" t="n">
-        <v>35</v>
-      </c>
-      <c r="H23" t="n">
-        <v>35</v>
-      </c>
-      <c r="I23" t="n">
         <v>35</v>
       </c>
     </row>
